--- a/Dados-covid-19-SP.xlsx
+++ b/Dados-covid-19-SP.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\Modelos Personalizados do Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\Pasta de git\GIT e GitHub\Projeto_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B25104-F685-45BD-A9F4-8F112BBB7A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BCD916-575D-4D4F-9831-F65478ABA067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="6855" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados-covid-19-estado (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -48,11 +57,20 @@
   <si>
     <t>TOTAL %</t>
   </si>
+  <si>
+    <t>CASOS DE FEV/DEZ</t>
+  </si>
+  <si>
+    <t>CASOS/DIA</t>
+  </si>
+  <si>
+    <t>OBITOS/DIA MAR/DEZ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -535,7 +553,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -552,6 +570,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -908,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J695"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S696"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,9 +943,12 @@
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43887</v>
       </c>
@@ -966,8 +988,8 @@
         <v>2020</v>
       </c>
       <c r="G2" s="5">
-        <f>AVERAGE(B2,B311)</f>
-        <v>731149</v>
+        <f>AVERAGE(B2:B311)</f>
+        <v>577629.00645161292</v>
       </c>
       <c r="H2" s="5">
         <f>AVERAGE(C2,C311)</f>
@@ -978,8 +1000,32 @@
         <v>120.5</v>
       </c>
       <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7">
+        <f>G3/G2-1</f>
+        <v>4.8921633807133951</v>
+      </c>
+      <c r="M2" s="7">
+        <f>H3/H2-1</f>
+        <v>-0.51164383561643834</v>
+      </c>
+      <c r="N2" s="7">
+        <f>I3/I2-1</f>
+        <v>-0.68049792531120334</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43888</v>
       </c>
@@ -993,8 +1039,8 @@
         <v>2021</v>
       </c>
       <c r="G3" s="5">
-        <f>AVERAGE(B312,B676)</f>
-        <v>2961149.5</v>
+        <f>AVERAGE(B312:B676)</f>
+        <v>3403484.4794520549</v>
       </c>
       <c r="H3" s="5">
         <f>AVERAGE(C312,C676)</f>
@@ -1004,8 +1050,27 @@
         <f>AVERAGE(D312,D676)</f>
         <v>38.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>2020</v>
+      </c>
+      <c r="P3" s="8">
+        <f>SUM(B2:B311)</f>
+        <v>179064992</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>SUM(C2,C311)</f>
+        <v>10220</v>
+      </c>
+      <c r="R3" s="8">
+        <f>SUM(D22:D311)</f>
+        <v>46717</v>
+      </c>
+      <c r="S3" s="3">
+        <f>R4/R3</f>
+        <v>2.3222381574159301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43889</v>
       </c>
@@ -1015,23 +1080,23 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="7">
-        <f>G3/G2-1</f>
-        <v>3.0499945975444129</v>
-      </c>
-      <c r="H4" s="7">
-        <f>H3/H2-1</f>
-        <v>-0.51164383561643834</v>
-      </c>
-      <c r="I4" s="7">
-        <f>I3/I2-1</f>
-        <v>-0.68049792531120334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>2021</v>
+      </c>
+      <c r="P4" s="8">
+        <f>SUM(B312,B676)</f>
+        <v>5922299</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>SUM(C312,C676)</f>
+        <v>4991</v>
+      </c>
+      <c r="R4" s="8">
+        <f>SUM(D312:D676)</f>
+        <v>108488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43890</v>
       </c>
@@ -1043,7 +1108,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43891</v>
       </c>
@@ -1054,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43892</v>
       </c>
@@ -1065,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43893</v>
       </c>
@@ -1076,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43894</v>
       </c>
@@ -1087,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43895</v>
       </c>
@@ -1098,7 +1163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43896</v>
       </c>
@@ -1109,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43897</v>
       </c>
@@ -1120,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43898</v>
       </c>
@@ -1131,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43899</v>
       </c>
@@ -1142,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43900</v>
       </c>
@@ -1153,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43901</v>
       </c>
@@ -10653,6 +10718,12 @@
       </c>
       <c r="D695">
         <v>139</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D696">
+        <f>SUM(D22:D313)</f>
+        <v>46808</v>
       </c>
     </row>
   </sheetData>

--- a/Dados-covid-19-SP.xlsx
+++ b/Dados-covid-19-SP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\Pasta de git\GIT e GitHub\Projeto_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BCD916-575D-4D4F-9831-F65478ABA067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C453F79-283E-4B18-9E48-0C752EA49657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados-covid-19-estado (2)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Data</t>
   </si>
@@ -55,9 +55,6 @@
     <t>OBITOS POR DIA</t>
   </si>
   <si>
-    <t>TOTAL %</t>
-  </si>
-  <si>
     <t>CASOS DE FEV/DEZ</t>
   </si>
   <si>
@@ -65,6 +62,18 @@
   </si>
   <si>
     <t>OBITOS/DIA MAR/DEZ</t>
+  </si>
+  <si>
+    <t>OBITOS/DIA</t>
+  </si>
+  <si>
+    <t>TOTAL DE CASOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASOS/DIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -74,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +218,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,8 +407,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -506,6 +541,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -553,24 +756,74 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="34" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="34" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="34" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="34" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -618,7 +871,11 @@
     <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -629,6 +886,5973 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados-covid-19-estado (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEDIA DE CASOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados-covid-19-estado (2)'!$G$2:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>577629.00645161292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3403484.4794520549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28C5-4024-92D0-35C8DDBFF1C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1177917920"/>
+        <c:axId val="1177917088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1177917920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177917088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1177917088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177917920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados-covid-19-estado (2)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEDIA DE CASOS/DIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados-covid-19-estado (2)'!$H$2:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4717.0870967741939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8202.2219178082196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-163A-4C42-BC17-4A8B4D5A0E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1231673872"/>
+        <c:axId val="1231685520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1231673872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231685520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1231685520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231673872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados-covid-19-estado (2)'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OBITOS POR DIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados-covid-19-estado (2)'!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>161.09310344827585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>297.22739726027396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2536-4E6D-9A8D-10549E484348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1177266320"/>
+        <c:axId val="1177278384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1177266320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177278384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1177278384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177266320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dados-covid-19-estado (2)'!$K$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL DE CASOS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> CASOS/DIA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OBITOS/DIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados-covid-19-estado (2)'!$K$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.9375472063238357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6844069433004307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3222381574159301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C01-4873-9445-5E4AC7361EAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="883178496"/>
+        <c:axId val="1237863552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="883178496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1237863552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1237863552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="883178496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados-covid-19-estado (2)'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CASOS DE FEV/DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados-covid-19-estado (2)'!$P$2:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>179064992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1242271835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B510-45C4-974C-49A4F34CBE82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1232032192"/>
+        <c:axId val="1232023872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1232032192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232023872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1232023872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232032192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados-covid-19-estado (2)'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CASOS/DIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados-covid-19-estado (2)'!$Q$2:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1777368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2993811</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CAE-4593-8158-68C72A2A9A8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1349999904"/>
+        <c:axId val="1350000320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1349999904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350000320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1350000320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1349999904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados-covid-19-estado (2)'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OBITOS/DIA MAR/DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados-covid-19-estado (2)'!$R$2:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>46717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC8E-410E-A356-C0D46BCDF9D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1350001984"/>
+        <c:axId val="1350001568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1350001984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350001568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1350001568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350001984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3B6EEE-4B1F-41BD-AC34-802B3FE7F4B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A6F0A3-F8B9-4F0A-B933-8FDB88136041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA60650D-3C88-4611-B84D-689848F88425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F4445C-D7FA-4210-AE55-FB164D955F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>776287</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCFCDA57-40D8-4AA8-AB3D-C381F05C176D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>795337</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ABF10C-93A8-4D57-9F2A-70A926B2D4F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1042987</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9487B5F-C2A2-4C9D-9114-19CF051D935F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BDAB408A-5A91-4D45-81E1-D55898292A27}" name="Tabela2" displayName="Tabela2" ref="A1:D695" totalsRowShown="0">
+  <autoFilter ref="A1:D695" xr:uid="{BDAB408A-5A91-4D45-81E1-D55898292A27}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{058A3D21-EFBC-46B6-84AE-477F0BB3B938}" name="Data" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{65288002-9C9A-4539-8949-939FED4E1426}" name="Total de casos"/>
+    <tableColumn id="3" xr3:uid="{6865E108-2F19-43DB-811F-ADEB59B18DB7}" name="Casos por dia"/>
+    <tableColumn id="4" xr3:uid="{9CD40869-7EB6-4FAC-92F3-12CC23F8BF9E}" name="Óbitos por dia"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,27 +7152,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S696"/>
+  <dimension ref="A1:R696"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,20 +7187,42 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43887</v>
       </c>
@@ -984,48 +7232,52 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="11">
         <v>2020</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="13">
         <f>AVERAGE(B2:B311)</f>
         <v>577629.00645161292</v>
       </c>
-      <c r="H2" s="5">
-        <f>AVERAGE(C2,C311)</f>
-        <v>5110</v>
-      </c>
-      <c r="I2" s="6">
-        <f>AVERAGE(D22,D311)</f>
-        <v>120.5</v>
+      <c r="H2" s="13">
+        <f>AVERAGE(C2:C311)</f>
+        <v>4717.0870967741939</v>
+      </c>
+      <c r="I2" s="14">
+        <f>AVERAGE(D22:D311)</f>
+        <v>161.09310344827585</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7">
-        <f>G3/G2-1</f>
-        <v>4.8921633807133951</v>
-      </c>
-      <c r="M2" s="7">
-        <f>H3/H2-1</f>
-        <v>-0.51164383561643834</v>
-      </c>
-      <c r="N2" s="7">
-        <f>I3/I2-1</f>
-        <v>-0.68049792531120334</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K2" s="16">
+        <f>P3/P2</f>
+        <v>6.9375472063238357</v>
+      </c>
+      <c r="L2" s="17">
+        <f>Q3/Q2</f>
+        <v>1.6844069433004307</v>
+      </c>
+      <c r="M2" s="18">
+        <f>R3/R2</f>
+        <v>2.3222381574159301</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="11">
+        <v>2020</v>
+      </c>
+      <c r="P2" s="13">
+        <f>SUM(B2:B311)</f>
+        <v>179064992</v>
+      </c>
+      <c r="Q2" s="13">
+        <f>SUM(C2:C342)</f>
+        <v>1777368</v>
+      </c>
+      <c r="R2" s="19">
+        <f>SUM(D22:D311)</f>
+        <v>46717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43888</v>
       </c>
@@ -1035,42 +7287,38 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="23">
         <v>2021</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="24">
         <f>AVERAGE(B312:B676)</f>
         <v>3403484.4794520549</v>
       </c>
-      <c r="H3" s="5">
-        <f>AVERAGE(C312,C676)</f>
-        <v>2495.5</v>
-      </c>
-      <c r="I3" s="6">
-        <f>AVERAGE(D312,D676)</f>
-        <v>38.5</v>
-      </c>
-      <c r="O3">
-        <v>2020</v>
-      </c>
-      <c r="P3" s="8">
-        <f>SUM(B2:B311)</f>
-        <v>179064992</v>
-      </c>
-      <c r="Q3" s="8">
-        <f>SUM(C2,C311)</f>
-        <v>10220</v>
-      </c>
-      <c r="R3" s="8">
-        <f>SUM(D22:D311)</f>
-        <v>46717</v>
-      </c>
-      <c r="S3" s="3">
-        <f>R4/R3</f>
-        <v>2.3222381574159301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H3" s="24">
+        <f>AVERAGE(C312:C676)</f>
+        <v>8202.2219178082196</v>
+      </c>
+      <c r="I3" s="25">
+        <f>AVERAGE(D312:D676)</f>
+        <v>297.22739726027396</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2021</v>
+      </c>
+      <c r="P3" s="15">
+        <f>SUM(B312:B676)</f>
+        <v>1242271835</v>
+      </c>
+      <c r="Q3" s="15">
+        <f>SUM(C312:C676)</f>
+        <v>2993811</v>
+      </c>
+      <c r="R3" s="20">
+        <f>SUM(D312:D676)</f>
+        <v>108488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43889</v>
       </c>
@@ -1080,23 +7328,16 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>2021</v>
-      </c>
-      <c r="P4" s="8">
-        <f>SUM(B312,B676)</f>
-        <v>5922299</v>
-      </c>
-      <c r="Q4" s="8">
-        <f>SUM(C312,C676)</f>
-        <v>4991</v>
-      </c>
-      <c r="R4" s="8">
-        <f>SUM(D312:D676)</f>
-        <v>108488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43890</v>
       </c>
@@ -1106,9 +7347,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43891</v>
       </c>
@@ -1118,8 +7358,9 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43892</v>
       </c>
@@ -1130,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43893</v>
       </c>
@@ -1140,8 +7381,9 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43894</v>
       </c>
@@ -1152,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43895</v>
       </c>
@@ -1163,7 +7405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43896</v>
       </c>
@@ -1174,7 +7416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43897</v>
       </c>
@@ -1184,8 +7426,12 @@
       <c r="C12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43898</v>
       </c>
@@ -1196,7 +7442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43899</v>
       </c>
@@ -1207,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43900</v>
       </c>
@@ -1217,8 +7463,9 @@
       <c r="C15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43901</v>
       </c>
@@ -1229,7 +7476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43902</v>
       </c>
@@ -1240,7 +7487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43903</v>
       </c>
@@ -1251,7 +7498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43904</v>
       </c>
@@ -1262,7 +7509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43905</v>
       </c>
@@ -1272,8 +7519,9 @@
       <c r="C20">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43906</v>
       </c>
@@ -1284,7 +7532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43907</v>
       </c>
@@ -1298,7 +7546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43908</v>
       </c>
@@ -1312,7 +7560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43909</v>
       </c>
@@ -1326,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43910</v>
       </c>
@@ -1340,7 +7588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43911</v>
       </c>
@@ -1354,7 +7602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43912</v>
       </c>
@@ -1368,7 +7616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43913</v>
       </c>
@@ -1382,7 +7630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43914</v>
       </c>
@@ -1396,7 +7644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43915</v>
       </c>
@@ -1410,7 +7658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43916</v>
       </c>
@@ -1424,7 +7672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43917</v>
       </c>
@@ -10729,5 +16977,9 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Dados-covid-19-SP.xlsx
+++ b/Dados-covid-19-SP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Documents\Pasta de git\GIT e GitHub\Projeto_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C453F79-283E-4B18-9E48-0C752EA49657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EAB575-52D7-48C4-AC0E-699EC01784C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Data</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>ANO</t>
-  </si>
-  <si>
-    <t>MEDIA DE CASOS</t>
-  </si>
-  <si>
-    <t>MEDIA DE CASOS/DIA</t>
   </si>
   <si>
     <t>OBITOS POR DIA</t>
@@ -70,10 +64,25 @@
     <t>TOTAL DE CASOS</t>
   </si>
   <si>
-    <t xml:space="preserve"> CASOS/DIA</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>TOTAL DE CASOS/DIA</t>
+  </si>
+  <si>
+    <t>MÉDIA</t>
+  </si>
+  <si>
+    <t>MÉDIA DE CASOS</t>
+  </si>
+  <si>
+    <t>MÉDIA DE CASOS/DIA</t>
+  </si>
+  <si>
+    <t>TOTAL SOMA</t>
+  </si>
+  <si>
+    <t>TOTAL %</t>
   </si>
 </sst>
 </file>
@@ -421,7 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,39 +683,37 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -756,7 +763,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -774,9 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="33" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,13 +793,7 @@
     <xf numFmtId="43" fontId="0" fillId="34" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="34" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="34" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="34" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,18 +810,47 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="34" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="34" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="34" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="34" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="34" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="34" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -888,5963 +915,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dados-covid-19-estado (2)'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MEDIA DE CASOS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados-covid-19-estado (2)'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>577629.00645161292</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3403484.4794520549</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-28C5-4024-92D0-35C8DDBFF1C0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1177917920"/>
-        <c:axId val="1177917088"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1177917920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1177917088"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1177917088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1177917920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dados-covid-19-estado (2)'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MEDIA DE CASOS/DIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados-covid-19-estado (2)'!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4717.0870967741939</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8202.2219178082196</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-163A-4C42-BC17-4A8B4D5A0E20}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1231673872"/>
-        <c:axId val="1231685520"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1231673872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1231685520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1231685520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1231673872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dados-covid-19-estado (2)'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OBITOS POR DIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados-covid-19-estado (2)'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>161.09310344827585</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>297.22739726027396</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2536-4E6D-9A8D-10549E484348}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1177266320"/>
-        <c:axId val="1177278384"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1177266320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1177278384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1177278384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1177266320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Dados-covid-19-estado (2)'!$K$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>TOTAL DE CASOS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> CASOS/DIA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>OBITOS/DIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados-covid-19-estado (2)'!$K$2:$M$2</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.9375472063238357</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6844069433004307</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3222381574159301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C01-4873-9445-5E4AC7361EAC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="883178496"/>
-        <c:axId val="1237863552"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="883178496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1237863552"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1237863552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="883178496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dados-covid-19-estado (2)'!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CASOS DE FEV/DEZ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados-covid-19-estado (2)'!$P$2:$P$3</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>179064992</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1242271835</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B510-45C4-974C-49A4F34CBE82}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1232032192"/>
-        <c:axId val="1232023872"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1232032192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1232023872"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1232023872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1232032192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dados-covid-19-estado (2)'!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CASOS/DIA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados-covid-19-estado (2)'!$Q$2:$Q$3</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1777368</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2993811</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0CAE-4593-8158-68C72A2A9A8F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1349999904"/>
-        <c:axId val="1350000320"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1349999904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1350000320"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1350000320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1349999904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dados-covid-19-estado (2)'!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OBITOS/DIA MAR/DEZ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dados-covid-19-estado (2)'!$R$2:$R$3</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>46717</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>108488</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC8E-410E-A356-C0D46BCDF9D7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1350001984"/>
-        <c:axId val="1350001568"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1350001984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1350001568"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1350001568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1350001984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3B6EEE-4B1F-41BD-AC34-802B3FE7F4B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A6F0A3-F8B9-4F0A-B933-8FDB88136041}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA60650D-3C88-4611-B84D-689848F88425}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F4445C-D7FA-4210-AE55-FB164D955F65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>776287</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCFCDA57-40D8-4AA8-AB3D-C381F05C176D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>795337</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ABF10C-93A8-4D57-9F2A-70A926B2D4F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>747712</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1042987</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9487B5F-C2A2-4C9D-9114-19CF051D935F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BDAB408A-5A91-4D45-81E1-D55898292A27}" name="Tabela2" displayName="Tabela2" ref="A1:D695" totalsRowShown="0">
   <autoFilter ref="A1:D695" xr:uid="{BDAB408A-5A91-4D45-81E1-D55898292A27}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D695">
+    <sortCondition ref="A1:A695"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{058A3D21-EFBC-46B6-84AE-477F0BB3B938}" name="Data" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{65288002-9C9A-4539-8949-939FED4E1426}" name="Total de casos"/>
@@ -7155,7 +1231,7 @@
   <dimension ref="A1:R696"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7164,17 +1240,17 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7187,42 +1263,26 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="F1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="K1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43887</v>
       </c>
@@ -7232,49 +1292,40 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
-        <v>2020</v>
-      </c>
-      <c r="G2" s="13">
-        <f>AVERAGE(B2:B311)</f>
-        <v>577629.00645161292</v>
-      </c>
-      <c r="H2" s="13">
-        <f>AVERAGE(C2:C311)</f>
-        <v>4717.0870967741939</v>
-      </c>
-      <c r="I2" s="14">
-        <f>AVERAGE(D22:D311)</f>
-        <v>161.09310344827585</v>
+      <c r="F2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>5</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="16">
-        <f>P3/P2</f>
-        <v>6.9375472063238357</v>
-      </c>
-      <c r="L2" s="17">
-        <f>Q3/Q2</f>
-        <v>1.6844069433004307</v>
-      </c>
-      <c r="M2" s="18">
-        <f>R3/R2</f>
-        <v>2.3222381574159301</v>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="11">
-        <v>2020</v>
-      </c>
-      <c r="P2" s="13">
-        <f>SUM(B2:B311)</f>
-        <v>179064992</v>
-      </c>
-      <c r="Q2" s="13">
-        <f>SUM(C2:C342)</f>
-        <v>1777368</v>
-      </c>
-      <c r="R2" s="19">
-        <f>SUM(D22:D311)</f>
-        <v>46717</v>
+      <c r="O2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7287,55 +1338,91 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="25">
+        <v>2020</v>
+      </c>
+      <c r="G3" s="26">
+        <f>AVERAGE(B2:B311)</f>
+        <v>577629.00645161292</v>
+      </c>
+      <c r="H3" s="26">
+        <f>AVERAGE(C2:C311)</f>
+        <v>4717.0870967741939</v>
+      </c>
+      <c r="I3" s="27">
+        <f>AVERAGE(D22:D311)</f>
+        <v>161.09310344827585</v>
+      </c>
+      <c r="K3" s="31">
+        <f>P4/P3</f>
+        <v>6.9375472063238357</v>
+      </c>
+      <c r="L3" s="14">
+        <f>Q4/Q3</f>
+        <v>1.6844069433004307</v>
+      </c>
+      <c r="M3" s="15">
+        <f>R4/R3</f>
+        <v>2.3222381574159301</v>
+      </c>
+      <c r="O3" s="10">
+        <v>2020</v>
+      </c>
+      <c r="P3" s="12">
+        <f>SUM(B2:B311)</f>
+        <v>179064992</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>SUM(C2:C342)</f>
+        <v>1777368</v>
+      </c>
+      <c r="R3" s="16">
+        <f>SUM(D22:D311)</f>
+        <v>46717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
         <v>2021</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G4" s="29">
         <f>AVERAGE(B312:B676)</f>
         <v>3403484.4794520549</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H4" s="29">
         <f>AVERAGE(C312:C676)</f>
         <v>8202.2219178082196</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I4" s="30">
         <f>AVERAGE(D312:D676)</f>
         <v>297.22739726027396</v>
       </c>
-      <c r="O3" s="12">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="11">
         <v>2021</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P4" s="13">
         <f>SUM(B312:B676)</f>
         <v>1242271835</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q4" s="13">
         <f>SUM(C312:C676)</f>
         <v>2993811</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R4" s="17">
         <f>SUM(D312:D676)</f>
         <v>108488</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -7358,7 +1445,6 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -7381,7 +1467,7 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -7426,10 +1512,10 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="21"/>
+      <c r="H12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7463,7 +1549,7 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="H15" s="27"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -7519,7 +1605,7 @@
       <c r="C20">
         <v>71</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -16975,11 +11061,18 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="O1:R1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="G3:G4 H3:H4 I3:I4 P3:P4 R3:R4 Q3:Q4" formulaRange="1"/>
+  </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>